--- a/各组员进度表/【长沙】-王伟进度表.xlsx
+++ b/各组员进度表/【长沙】-王伟进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -67,10 +67,25 @@
     <t>第三天</t>
   </si>
   <si>
+    <t>注册页面js效果完成一部分</t>
+  </si>
+  <si>
+    <t>注册页面验证的思路不清晰</t>
+  </si>
+  <si>
     <t>第四天</t>
   </si>
   <si>
     <t>与其他页面合并并做答辩准备</t>
+  </si>
+  <si>
+    <t>注册页面js效果完成</t>
+  </si>
+  <si>
+    <t>cookie的用法不是很熟练</t>
+  </si>
+  <si>
+    <t>对于表单验证有了一定的掌握</t>
   </si>
   <si>
     <t>第五天</t>
@@ -84,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,17 +128,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +186,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -144,14 +203,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,13 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,36 +240,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -220,30 +259,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,79 +279,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,97 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,26 +470,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +502,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,19 +584,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,112 +605,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1076,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1137,29 +1152,39 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
